--- a/Java Requirements.xlsx
+++ b/Java Requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Revature-Capstone-1362\construct-trello-boards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00495F73-6120-4555-920B-B3931F1F079A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E271156-CE9D-42CA-90DB-67DE3603DB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="3870" windowWidth="23550" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="4620" windowWidth="23550" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week Counter" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Week 1</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Week 12</t>
   </si>
   <si>
-    <t>Week 1 Requirements</t>
-  </si>
-  <si>
     <t>Github Repository</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>Use-Case Design</t>
   </si>
   <si>
-    <t>Week 2 Requirements</t>
-  </si>
-  <si>
     <t>Create Project</t>
   </si>
   <si>
@@ -95,9 +89,6 @@
   </si>
   <si>
     <t>SQL Queries</t>
-  </si>
-  <si>
-    <t>Week 3 Requirements</t>
   </si>
   <si>
     <t>Connection Factory Utility</t>
@@ -486,7 +477,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -528,7 +519,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -563,9 +554,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -595,11 +588,6 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -612,42 +600,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -662,40 +645,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -720,32 +700,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Java Requirements.xlsx
+++ b/Java Requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Revature-Capstone-1362\construct-trello-boards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E271156-CE9D-42CA-90DB-67DE3603DB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1BB0925-6F50-4EE1-83BD-9CE24A52B491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="4620" windowWidth="23550" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5670" yWindow="12270" windowWidth="23790" windowHeight="7365" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week Counter" sheetId="1" r:id="rId1"/>
@@ -29,19 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>Week 1</t>
-  </si>
-  <si>
-    <t>Week 2</t>
-  </si>
-  <si>
-    <t>Week 3</t>
-  </si>
-  <si>
-    <t>Week 4</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="93">
   <si>
     <t>Week 6</t>
   </si>
@@ -125,6 +113,201 @@
   </si>
   <si>
     <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 1 (Initialization)</t>
+  </si>
+  <si>
+    <t>Week 2 (Project Design)</t>
+  </si>
+  <si>
+    <t>Week 3 (Data Structures)</t>
+  </si>
+  <si>
+    <t>Week 4 (Endpoints-Javalin)</t>
+  </si>
+  <si>
+    <t>Week 1 Requirements</t>
+  </si>
+  <si>
+    <t>Set up respository for Project 1</t>
+  </si>
+  <si>
+    <t>Clone to your computer and initialize</t>
+  </si>
+  <si>
+    <t>First Commit</t>
+  </si>
+  <si>
+    <t>First Push</t>
+  </si>
+  <si>
+    <t>Local Directory (Folder)</t>
+  </si>
+  <si>
+    <t>GitHub Add</t>
+  </si>
+  <si>
+    <t>GitHub Commit</t>
+  </si>
+  <si>
+    <t>GitHub Push</t>
+  </si>
+  <si>
+    <t>Make a habit to sign all commits</t>
+  </si>
+  <si>
+    <t>Understand what what application is meant to do.</t>
+  </si>
+  <si>
+    <t>Review the architecture diagram</t>
+  </si>
+  <si>
+    <t>Draft an outline of the project requirements</t>
+  </si>
+  <si>
+    <t>Initialize Project</t>
+  </si>
+  <si>
+    <t>Add required Dependencies</t>
+  </si>
+  <si>
+    <t>Build Packages</t>
+  </si>
+  <si>
+    <t>User ID</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Resolver</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Attachments</t>
+  </si>
+  <si>
+    <t>SQL Script to create tables</t>
+  </si>
+  <si>
+    <t>Insert default employee and manager users</t>
+  </si>
+  <si>
+    <t>Get Instance Method</t>
+  </si>
+  <si>
+    <t>Get Connection Method</t>
+  </si>
+  <si>
+    <t>Register Method</t>
+  </si>
+  <si>
+    <t>Login Method</t>
+  </si>
+  <si>
+    <t>Get User by Username Method</t>
+  </si>
+  <si>
+    <t>Get User by ID Method</t>
+  </si>
+  <si>
+    <t>Get All Users Method</t>
+  </si>
+  <si>
+    <t>Submit Reimbursement Method</t>
+  </si>
+  <si>
+    <t>Update (Process) Reimbursement Method</t>
+  </si>
+  <si>
+    <t>Get Reimbursement by ID Method</t>
+  </si>
+  <si>
+    <t>Get All Reimbursements by UserID Method</t>
+  </si>
+  <si>
+    <t>Get Reimbursements by Status Method</t>
+  </si>
+  <si>
+    <t>Create User Method</t>
+  </si>
+  <si>
+    <t>Reimbursement DAO</t>
+  </si>
+  <si>
+    <t>Start Javalin Web Server</t>
+  </si>
+  <si>
+    <t>Add Controller Routes</t>
+  </si>
+  <si>
+    <t>Login Handler</t>
+  </si>
+  <si>
+    <t>Register Handler</t>
+  </si>
+  <si>
+    <t>Get all Users Handler</t>
+  </si>
+  <si>
+    <t>Get by Username Handler</t>
+  </si>
+  <si>
+    <t>Get by ID Handler</t>
+  </si>
+  <si>
+    <t>Submit Handler</t>
+  </si>
+  <si>
+    <t>Process Handler</t>
+  </si>
+  <si>
+    <t>Get by Status Handler</t>
+  </si>
+  <si>
+    <t>Get by Author Handler</t>
+  </si>
+  <si>
+    <t>Test Login Fails when Password Incorrect</t>
+  </si>
+  <si>
+    <t>Test Login Fails when Username Doesn't Exist</t>
+  </si>
+  <si>
+    <t>Test Register Fails when Username Already Exists</t>
+  </si>
+  <si>
+    <t>User Acceptance Testing</t>
+  </si>
+  <si>
+    <t>Make sure it works!</t>
+  </si>
+  <si>
+    <t>Test with Postman</t>
+  </si>
+  <si>
+    <t>Prepare Presentation</t>
   </si>
 </sst>
 </file>
@@ -476,70 +659,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -554,38 +737,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -600,37 +824,131 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -645,37 +963,156 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>24</v>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -690,42 +1127,169 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>30</v>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
